--- a/biology/Médecine/Capital_soleil/Capital_soleil.xlsx
+++ b/biology/Médecine/Capital_soleil/Capital_soleil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le capital solaire ou capital soleil correspond à la quantité totale de rayons du soleil que chaque individu peut recevoir tout au long de sa vie sans risque de développer un cancer de la peau[1] (mélanome[2]). La peau possède des capacités naturelles à réparer les dommages du soleil mais cette capacité de réparation varie d'un sujet à l'autre et ce, indépendamment du phototype[3]. Il semble que cette capacité de réparation diminue au cours de la vie[1],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le capital solaire ou capital soleil correspond à la quantité totale de rayons du soleil que chaque individu peut recevoir tout au long de sa vie sans risque de développer un cancer de la peau (mélanome). La peau possède des capacités naturelles à réparer les dommages du soleil mais cette capacité de réparation varie d'un sujet à l'autre et ce, indépendamment du phototype. Il semble que cette capacité de réparation diminue au cours de la vie,.
 </t>
         </is>
       </c>
